--- a/team_specific_matrix/Murray St._A.xlsx
+++ b/team_specific_matrix/Murray St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2036199095022624</v>
+        <v>0.2048611111111111</v>
       </c>
       <c r="C2">
-        <v>0.5203619909502263</v>
+        <v>0.5173611111111112</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01357466063348416</v>
+        <v>0.01736111111111111</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1221719457013575</v>
+        <v>0.1319444444444444</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1402714932126697</v>
+        <v>0.1284722222222222</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01680672268907563</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C3">
-        <v>0.03361344537815126</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.008403361344537815</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7226890756302521</v>
+        <v>0.7124183006535948</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2184873949579832</v>
+        <v>0.2418300653594771</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7666666666666667</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2333333333333333</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05161290322580645</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01290322580645161</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02580645161290323</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2580645161290323</v>
+        <v>0.25</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02580645161290323</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2</v>
+        <v>0.2135416666666667</v>
       </c>
       <c r="R6">
-        <v>0.08387096774193549</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S6">
-        <v>0.3419354838709677</v>
+        <v>0.3385416666666667</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1417322834645669</v>
+        <v>0.1258278145695364</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02362204724409449</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="E7">
-        <v>0.007874015748031496</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="F7">
-        <v>0.04724409448818898</v>
+        <v>0.04635761589403974</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1023622047244094</v>
+        <v>0.1258278145695364</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03149606299212598</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1496062992125984</v>
+        <v>0.152317880794702</v>
       </c>
       <c r="R7">
-        <v>0.08661417322834646</v>
+        <v>0.08609271523178808</v>
       </c>
       <c r="S7">
-        <v>0.4094488188976378</v>
+        <v>0.4105960264900662</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08333333333333333</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0119047619047619</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E8">
-        <v>0.005952380952380952</v>
+        <v>0.004705882352941176</v>
       </c>
       <c r="F8">
-        <v>0.03869047619047619</v>
+        <v>0.04470588235294118</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1160714285714286</v>
+        <v>0.1152941176470588</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.008928571428571428</v>
+        <v>0.01411764705882353</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1785714285714286</v>
+        <v>0.1811764705882353</v>
       </c>
       <c r="R8">
-        <v>0.09226190476190477</v>
+        <v>0.08470588235294117</v>
       </c>
       <c r="S8">
-        <v>0.4642857142857143</v>
+        <v>0.4494117647058823</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09444444444444444</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01111111111111111</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="E9">
-        <v>0.005555555555555556</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="F9">
-        <v>0.07777777777777778</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08888888888888889</v>
+        <v>0.09417040358744394</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03333333333333333</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2388888888888889</v>
+        <v>0.2331838565022422</v>
       </c>
       <c r="R9">
-        <v>0.05</v>
+        <v>0.04932735426008968</v>
       </c>
       <c r="S9">
-        <v>0.4</v>
+        <v>0.42152466367713</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.099</v>
+        <v>0.1052202283849918</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.019</v>
+        <v>0.02120717781402937</v>
       </c>
       <c r="E10">
-        <v>0.001</v>
+        <v>0.0008156606851549756</v>
       </c>
       <c r="F10">
-        <v>0.065</v>
+        <v>0.06525285481239804</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.118</v>
+        <v>0.1190864600326264</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.016</v>
+        <v>0.01631321370309951</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.241</v>
+        <v>0.2398042414355628</v>
       </c>
       <c r="R10">
-        <v>0.08500000000000001</v>
+        <v>0.08564437194127243</v>
       </c>
       <c r="S10">
-        <v>0.356</v>
+        <v>0.3466557911908646</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08866995073891626</v>
+        <v>0.09745762711864407</v>
       </c>
       <c r="K11">
-        <v>0.2315270935960591</v>
+        <v>0.2288135593220339</v>
       </c>
       <c r="L11">
-        <v>0.5221674876847291</v>
+        <v>0.5169491525423728</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01477832512315271</v>
+        <v>0.01271186440677966</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7407407407407407</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2037037037037037</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02777777777777778</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02777777777777778</v>
+        <v>0.02419354838709677</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6785714285714286</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03571428571428571</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0202020202020202</v>
+        <v>0.01673640167364017</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1464646464646465</v>
+        <v>0.1548117154811715</v>
       </c>
       <c r="I15">
-        <v>0.07575757575757576</v>
+        <v>0.07949790794979079</v>
       </c>
       <c r="J15">
-        <v>0.3787878787878788</v>
+        <v>0.3807531380753138</v>
       </c>
       <c r="K15">
-        <v>0.04545454545454546</v>
+        <v>0.04184100418410042</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01515151515151515</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.101010101010101</v>
+        <v>0.08368200836820083</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2171717171717172</v>
+        <v>0.2301255230125523</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007352941176470588</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1176470588235294</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="I16">
-        <v>0.1397058823529412</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="J16">
-        <v>0.3970588235294117</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="K16">
-        <v>0.1176470588235294</v>
+        <v>0.1067415730337079</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02941176470588235</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08088235294117647</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1102941176470588</v>
+        <v>0.0898876404494382</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01007556675062972</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1612090680100756</v>
+        <v>0.1741803278688525</v>
       </c>
       <c r="I17">
-        <v>0.1032745591939547</v>
+        <v>0.1045081967213115</v>
       </c>
       <c r="J17">
-        <v>0.4357682619647355</v>
+        <v>0.4508196721311475</v>
       </c>
       <c r="K17">
-        <v>0.08816120906801007</v>
+        <v>0.0860655737704918</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007556675062972292</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="N17">
-        <v>0.007556675062972292</v>
+        <v>0.006147540983606557</v>
       </c>
       <c r="O17">
-        <v>0.05541561712846348</v>
+        <v>0.05327868852459016</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1309823677581864</v>
+        <v>0.1086065573770492</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02027027027027027</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1891891891891892</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.0945945945945946</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="J18">
-        <v>0.4527027027027027</v>
+        <v>0.4388888888888889</v>
       </c>
       <c r="K18">
-        <v>0.05405405405405406</v>
+        <v>0.05</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02702702702702703</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06756756756756757</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0945945945945946</v>
+        <v>0.09444444444444444</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01979166666666667</v>
+        <v>0.0198961937716263</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.209375</v>
+        <v>0.2136678200692042</v>
       </c>
       <c r="I19">
-        <v>0.09479166666666666</v>
+        <v>0.09688581314878893</v>
       </c>
       <c r="J19">
-        <v>0.3822916666666666</v>
+        <v>0.3771626297577855</v>
       </c>
       <c r="K19">
-        <v>0.09583333333333334</v>
+        <v>0.09083044982698962</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.015625</v>
+        <v>0.01557093425605536</v>
       </c>
       <c r="N19">
-        <v>0.001041666666666667</v>
+        <v>0.00259515570934256</v>
       </c>
       <c r="O19">
-        <v>0.08333333333333333</v>
+        <v>0.08564013840830449</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09791666666666667</v>
+        <v>0.09775086505190311</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Murray St._A.xlsx
+++ b/team_specific_matrix/Murray St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2048611111111111</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.5173611111111112</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01736111111111111</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1319444444444444</v>
+        <v>0.1278688524590164</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1284722222222222</v>
+        <v>0.1311475409836066</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0130718954248366</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C3">
-        <v>0.0261437908496732</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006535947712418301</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7124183006535948</v>
+        <v>0.725609756097561</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2418300653594771</v>
+        <v>0.2317073170731707</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7948717948717948</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2051282051282051</v>
+        <v>0.2195121951219512</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05208333333333334</v>
+        <v>0.0625</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01041666666666667</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02604166666666667</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.2451923076923077</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02604166666666667</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2135416666666667</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="R6">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S6">
-        <v>0.3385416666666667</v>
+        <v>0.3413461538461539</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1258278145695364</v>
+        <v>0.120253164556962</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01986754966887417</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="E7">
-        <v>0.006622516556291391</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="F7">
-        <v>0.04635761589403974</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1258278145695364</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02649006622516556</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.152317880794702</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="R7">
-        <v>0.08609271523178808</v>
+        <v>0.08227848101265822</v>
       </c>
       <c r="S7">
-        <v>0.4105960264900662</v>
+        <v>0.4050632911392405</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09411764705882353</v>
+        <v>0.08951965065502183</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01176470588235294</v>
+        <v>0.01091703056768559</v>
       </c>
       <c r="E8">
-        <v>0.004705882352941176</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="F8">
-        <v>0.04470588235294118</v>
+        <v>0.04366812227074236</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1152941176470588</v>
+        <v>0.1200873362445415</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01411764705882353</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1811764705882353</v>
+        <v>0.1768558951965065</v>
       </c>
       <c r="R8">
-        <v>0.08470588235294117</v>
+        <v>0.08951965065502183</v>
       </c>
       <c r="S8">
-        <v>0.4494117647058823</v>
+        <v>0.4519650655021834</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08520179372197309</v>
+        <v>0.0860655737704918</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0179372197309417</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="E9">
-        <v>0.004484304932735426</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="F9">
-        <v>0.06278026905829596</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09417040358744394</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03139013452914798</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2331838565022422</v>
+        <v>0.2336065573770492</v>
       </c>
       <c r="R9">
-        <v>0.04932735426008968</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="S9">
-        <v>0.42152466367713</v>
+        <v>0.4262295081967213</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1052202283849918</v>
+        <v>0.1055853098699311</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02120717781402937</v>
+        <v>0.02065799540933435</v>
       </c>
       <c r="E10">
-        <v>0.0008156606851549756</v>
+        <v>0.0007651109410864575</v>
       </c>
       <c r="F10">
-        <v>0.06525285481239804</v>
+        <v>0.06579954093343535</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1190864600326264</v>
+        <v>0.1185921958684009</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01631321370309951</v>
+        <v>0.01606732976281561</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2398042414355628</v>
+        <v>0.2471308339709258</v>
       </c>
       <c r="R10">
-        <v>0.08564437194127243</v>
+        <v>0.08339709257842387</v>
       </c>
       <c r="S10">
-        <v>0.3466557911908646</v>
+        <v>0.3420045906656465</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.004065040650406504</v>
       </c>
       <c r="G11">
-        <v>0.1440677966101695</v>
+        <v>0.1382113821138211</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09745762711864407</v>
+        <v>0.09349593495934959</v>
       </c>
       <c r="K11">
-        <v>0.2288135593220339</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L11">
-        <v>0.5169491525423728</v>
+        <v>0.5284552845528455</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01271186440677966</v>
+        <v>0.01626016260162602</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7741935483870968</v>
+        <v>0.7803030303030303</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1774193548387097</v>
+        <v>0.1742424242424243</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02419354838709677</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02419354838709677</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6764705882352942</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2941176470588235</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01673640167364017</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1548117154811715</v>
+        <v>0.1653543307086614</v>
       </c>
       <c r="I15">
-        <v>0.07949790794979079</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="J15">
-        <v>0.3807531380753138</v>
+        <v>0.3779527559055118</v>
       </c>
       <c r="K15">
-        <v>0.04184100418410042</v>
+        <v>0.03937007874015748</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01255230125523013</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08368200836820083</v>
+        <v>0.08267716535433071</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2301255230125523</v>
+        <v>0.2283464566929134</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01685393258426966</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1348314606741573</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="I16">
-        <v>0.1348314606741573</v>
+        <v>0.1421052631578947</v>
       </c>
       <c r="J16">
-        <v>0.4044943820224719</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="K16">
-        <v>0.1067415730337079</v>
+        <v>0.1105263157894737</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02247191011235955</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0898876404494382</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0898876404494382</v>
+        <v>0.08421052631578947</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.00819672131147541</v>
+        <v>0.007561436672967864</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1741803278688525</v>
+        <v>0.1776937618147448</v>
       </c>
       <c r="I17">
-        <v>0.1045081967213115</v>
+        <v>0.1077504725897921</v>
       </c>
       <c r="J17">
-        <v>0.4508196721311475</v>
+        <v>0.44234404536862</v>
       </c>
       <c r="K17">
-        <v>0.0860655737704918</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.00819672131147541</v>
+        <v>0.007561436672967864</v>
       </c>
       <c r="N17">
-        <v>0.006147540983606557</v>
+        <v>0.005671077504725898</v>
       </c>
       <c r="O17">
-        <v>0.05327868852459016</v>
+        <v>0.05671077504725898</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1086065573770492</v>
+        <v>0.1077504725897921</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.1947368421052632</v>
       </c>
       <c r="I18">
-        <v>0.09444444444444444</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="J18">
-        <v>0.4388888888888889</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="K18">
-        <v>0.05</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03333333333333333</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06111111111111111</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09444444444444444</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0198961937716263</v>
+        <v>0.0211038961038961</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2136678200692042</v>
+        <v>0.213474025974026</v>
       </c>
       <c r="I19">
-        <v>0.09688581314878893</v>
+        <v>0.09983766233766234</v>
       </c>
       <c r="J19">
-        <v>0.3771626297577855</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="K19">
-        <v>0.09083044982698962</v>
+        <v>0.08847402597402597</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01557093425605536</v>
+        <v>0.01623376623376623</v>
       </c>
       <c r="N19">
-        <v>0.00259515570934256</v>
+        <v>0.002435064935064935</v>
       </c>
       <c r="O19">
-        <v>0.08564013840830449</v>
+        <v>0.08603896103896104</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09775086505190311</v>
+        <v>0.09577922077922078</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Murray St._A.xlsx
+++ b/team_specific_matrix/Murray St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.1980830670926517</v>
       </c>
       <c r="C2">
-        <v>0.5245901639344263</v>
+        <v>0.5303514376996805</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01639344262295082</v>
+        <v>0.01597444089456869</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1278688524590164</v>
+        <v>0.1277955271565495</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1311475409836066</v>
+        <v>0.1277955271565495</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01219512195121951</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="C3">
-        <v>0.02439024390243903</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006097560975609756</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.725609756097561</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2317073170731707</v>
+        <v>0.2280701754385965</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7804878048780488</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2195121951219512</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0625</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01442307692307692</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02403846153846154</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2451923076923077</v>
+        <v>0.2394366197183098</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02403846153846154</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2115384615384615</v>
+        <v>0.2065727699530517</v>
       </c>
       <c r="R6">
-        <v>0.07692307692307693</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="S6">
-        <v>0.3413461538461539</v>
+        <v>0.352112676056338</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.120253164556962</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0189873417721519</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E7">
-        <v>0.006329113924050633</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="F7">
-        <v>0.05696202531645569</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1329113924050633</v>
+        <v>0.1286549707602339</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02531645569620253</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1518987341772152</v>
+        <v>0.152046783625731</v>
       </c>
       <c r="R7">
-        <v>0.08227848101265822</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="S7">
-        <v>0.4050632911392405</v>
+        <v>0.4093567251461988</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08951965065502183</v>
+        <v>0.09129511677282377</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01091703056768559</v>
+        <v>0.01061571125265393</v>
       </c>
       <c r="E8">
-        <v>0.004366812227074236</v>
+        <v>0.004246284501061571</v>
       </c>
       <c r="F8">
-        <v>0.04366812227074236</v>
+        <v>0.04246284501061571</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1200873362445415</v>
+        <v>0.1231422505307856</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01310043668122271</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1768558951965065</v>
+        <v>0.1804670912951168</v>
       </c>
       <c r="R8">
-        <v>0.08951965065502183</v>
+        <v>0.08917197452229299</v>
       </c>
       <c r="S8">
-        <v>0.4519650655021834</v>
+        <v>0.445859872611465</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0860655737704918</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01639344262295082</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="E9">
-        <v>0.004098360655737705</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="F9">
-        <v>0.05737704918032787</v>
+        <v>0.05490196078431372</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09836065573770492</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02868852459016394</v>
+        <v>0.02745098039215686</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2336065573770492</v>
+        <v>0.2313725490196079</v>
       </c>
       <c r="R9">
-        <v>0.04918032786885246</v>
+        <v>0.05098039215686274</v>
       </c>
       <c r="S9">
-        <v>0.4262295081967213</v>
+        <v>0.4352941176470588</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1055853098699311</v>
+        <v>0.1048327137546468</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02065799540933435</v>
+        <v>0.020817843866171</v>
       </c>
       <c r="E10">
-        <v>0.0007651109410864575</v>
+        <v>0.0007434944237918215</v>
       </c>
       <c r="F10">
-        <v>0.06579954093343535</v>
+        <v>0.06617100371747212</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1185921958684009</v>
+        <v>0.1197026022304833</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01606732976281561</v>
+        <v>0.01561338289962825</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2471308339709258</v>
+        <v>0.2490706319702602</v>
       </c>
       <c r="R10">
-        <v>0.08339709257842387</v>
+        <v>0.08252788104089219</v>
       </c>
       <c r="S10">
-        <v>0.3420045906656465</v>
+        <v>0.3405204460966543</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004065040650406504</v>
+        <v>0.00390625</v>
       </c>
       <c r="G11">
-        <v>0.1382113821138211</v>
+        <v>0.1328125</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09349593495934959</v>
+        <v>0.09375</v>
       </c>
       <c r="K11">
-        <v>0.2195121951219512</v>
+        <v>0.2109375</v>
       </c>
       <c r="L11">
-        <v>0.5284552845528455</v>
+        <v>0.54296875</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01626016260162602</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7803030303030303</v>
+        <v>0.7943262411347518</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1742424242424243</v>
+        <v>0.1631205673758865</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02272727272727273</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02272727272727273</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6571428571428571</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3142857142857143</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02857142857142857</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01574803149606299</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1653543307086614</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="I15">
-        <v>0.07874015748031496</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="J15">
-        <v>0.3779527559055118</v>
+        <v>0.3716475095785441</v>
       </c>
       <c r="K15">
-        <v>0.03937007874015748</v>
+        <v>0.03831417624521073</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01181102362204724</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08267716535433071</v>
+        <v>0.0842911877394636</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2283464566929134</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01578947368421053</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1368421052631579</v>
+        <v>0.1370558375634518</v>
       </c>
       <c r="I16">
-        <v>0.1421052631578947</v>
+        <v>0.1370558375634518</v>
       </c>
       <c r="J16">
-        <v>0.4052631578947368</v>
+        <v>0.4111675126903553</v>
       </c>
       <c r="K16">
-        <v>0.1105263157894737</v>
+        <v>0.1116751269035533</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02105263157894737</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08421052631578947</v>
+        <v>0.08121827411167512</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08421052631578947</v>
+        <v>0.08629441624365482</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007561436672967864</v>
+        <v>0.007285974499089253</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1776937618147448</v>
+        <v>0.1730418943533698</v>
       </c>
       <c r="I17">
-        <v>0.1077504725897921</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="J17">
-        <v>0.44234404536862</v>
+        <v>0.4408014571948998</v>
       </c>
       <c r="K17">
-        <v>0.08695652173913043</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007561436672967864</v>
+        <v>0.009107468123861567</v>
       </c>
       <c r="N17">
-        <v>0.005671077504725898</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="O17">
-        <v>0.05671077504725898</v>
+        <v>0.05828779599271403</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1077504725897921</v>
+        <v>0.1038251366120219</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02631578947368421</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1947368421052632</v>
+        <v>0.1887755102040816</v>
       </c>
       <c r="I18">
-        <v>0.09473684210526316</v>
+        <v>0.09693877551020408</v>
       </c>
       <c r="J18">
-        <v>0.4473684210526316</v>
+        <v>0.4540816326530612</v>
       </c>
       <c r="K18">
-        <v>0.04736842105263158</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03157894736842105</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05789473684210526</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1</v>
+        <v>0.09693877551020408</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0211038961038961</v>
+        <v>0.02055335968379447</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.213474025974026</v>
+        <v>0.2142292490118577</v>
       </c>
       <c r="I19">
-        <v>0.09983766233766234</v>
+        <v>0.09960474308300395</v>
       </c>
       <c r="J19">
-        <v>0.3766233766233766</v>
+        <v>0.374703557312253</v>
       </c>
       <c r="K19">
-        <v>0.08847402597402597</v>
+        <v>0.091699604743083</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01623376623376623</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="N19">
-        <v>0.002435064935064935</v>
+        <v>0.002371541501976285</v>
       </c>
       <c r="O19">
-        <v>0.08603896103896104</v>
+        <v>0.08537549407114625</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09577922077922078</v>
+        <v>0.09407114624505929</v>
       </c>
     </row>
   </sheetData>
